--- a/kvision/ksample/mytable/result/011_74306.xlsx
+++ b/kvision/ksample/mytable/result/011_74306.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,11 +64,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,734 +455,737 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>697</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>6NIY</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>8197 69</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>深</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>WI</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>9811</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>票</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>98161</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>99188</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>紫莱</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>966</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>生号业</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>691</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>举</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>新日</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>石</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>9066</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>0660</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>日旦</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>OT</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>FOT</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>811</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>89801</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>16201</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>8287</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>6198</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>载轴</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>9116</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>89260</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>996</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>联</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>9619</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>6689</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>喜</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>008T</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr"/>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>鲜子孩</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>99611</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>29211</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>0F68</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>I69</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>猫</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr"/>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>00</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>988953</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>盗出型推据</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>08181</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>市非</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>健型</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>【</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>茶</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr"/>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr"/>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>09908</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>本迪</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>4107</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>8107</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr"/>
-      <c r="E31" s="1" t="inlineStr"/>
+      <c r="A31" s="2" t="inlineStr"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/kvision/ksample/mytable/result/011_74306.xlsx
+++ b/kvision/ksample/mytable/result/011_74306.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,53 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,7 +111,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -73,6 +120,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -455,737 +506,737 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr"/>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr"/>
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>697</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>6NIY</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>8197 69</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>深</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WI</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>9811</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>票</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>98161</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>99188</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>紫莱</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>966</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>生号业</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>691</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>举</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr"/>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>新日</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>石</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>9066</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>0660</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>日旦</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>OT</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>FOT</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>811</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>89801</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>16201</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>8287</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>6198</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>载轴</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>9116</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>89260</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>996</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>联</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>9619</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>6689</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>喜</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>008T</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>鲜子孩</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>99611</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>29211</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>0F68</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>I69</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>猫</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>00</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>988953</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>盗出型推据</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>08181</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>市非</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>健型</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>【</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>茶</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr"/>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr"/>
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>09908</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>本迪</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>4107</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>8107</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="2" t="inlineStr"/>
+      <c r="A31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/kvision/ksample/mytable/result/011_74306.xlsx
+++ b/kvision/ksample/mytable/result/011_74306.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,6 +104,53 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -111,7 +158,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -124,6 +171,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,737 +557,737 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr"/>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr"/>
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>697</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>6NIY</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>8197 69</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>深</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WI</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>9811</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr"/>
+      <c r="E3" s="6" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>票</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>98161</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
+      <c r="E5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>99188</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>紫莱</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>966</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>生号业</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>691</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>举</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>新日</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>石</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>9066</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>0660</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>日旦</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>OT</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>FOT</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>811</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
+      <c r="E12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>89801</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>16201</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>8287</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>6198</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>载轴</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>9116</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>89260</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr"/>
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>996</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>联</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr"/>
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>9619</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>6689</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>喜</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>008T</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr"/>
+      <c r="E18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>鲜子孩</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>99611</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>29211</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr"/>
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>0F68</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>I69</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>猫</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr"/>
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr"/>
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>00</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>988953</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>盗出型推据</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>08181</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>市非</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>健型</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>【</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>茶</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr"/>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr"/>
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>09908</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>本迪</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>4107</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>8107</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr"/>
+      <c r="E30" s="6" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr"/>
-      <c r="B31" s="5" t="n"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="4" t="inlineStr"/>
+      <c r="A31" s="6" t="inlineStr"/>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="6" t="inlineStr"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
